--- a/Data-Charts/Initial Interview Data/Interview1Charts.xlsx
+++ b/Data-Charts/Initial Interview Data/Interview1Charts.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongkyuk0419\Google 드라이브\Cooper Union\EID 101\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,10 +41,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Saefety</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Language</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -61,19 +52,22 @@
     <t>State to State</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Safety</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -82,13 +76,13 @@
       <b/>
       <sz val="12"/>
       <color theme="6" tint="-0.499984740745262"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -147,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -206,7 +200,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> of Solo World Travellers</a:t>
+              <a:t> of Solo World Travelers</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ko-KR"/>
           </a:p>
@@ -221,26 +215,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -367,7 +341,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -415,7 +389,7 @@
                   <c:v>Organization</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Saefety</c:v>
+                  <c:v>Safety</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Language</c:v>
@@ -433,13 +407,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -497,7 +471,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -557,26 +531,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -653,11 +607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="364607056"/>
-        <c:axId val="364605880"/>
+        <c:axId val="59323136"/>
+        <c:axId val="59324672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="364607056"/>
+        <c:axId val="59323136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,10 +651,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364605880"/>
+        <c:crossAx val="59324672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,7 +662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364605880"/>
+        <c:axId val="59324672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,10 +710,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364607056"/>
+        <c:crossAx val="59323136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -797,7 +751,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1913,16 +1867,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>81997</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>62947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219489</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13666</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185116</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2229,7 +2183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2239,28 +2193,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.75">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="5">
         <v>2.5</v>
       </c>
@@ -2272,12 +2226,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -2285,41 +2239,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>2</v>

--- a/Data-Charts/Initial Interview Data/Interview1Charts.xlsx
+++ b/Data-Charts/Initial Interview Data/Interview1Charts.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongkyuk0419\Documents\GitHub\Traveler-SCD\Data-Charts\Initial Interview Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Cocerns</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,13 +66,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -76,13 +81,13 @@
       <b/>
       <sz val="12"/>
       <color theme="6" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -141,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -215,6 +220,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -341,7 +366,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -471,7 +496,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -531,6 +556,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -607,11 +652,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="59323136"/>
-        <c:axId val="59324672"/>
+        <c:axId val="359306888"/>
+        <c:axId val="359315904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59323136"/>
+        <c:axId val="359306888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,10 +696,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59324672"/>
+        <c:crossAx val="359315904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -662,7 +707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59324672"/>
+        <c:axId val="359315904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,10 +755,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59323136"/>
+        <c:crossAx val="359306888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -751,7 +796,383 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1st Interview</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1545229658792652"/>
+                  <c:y val="9.8224701079031793E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ko-KR"/>
+                      <a:t>Item Loss</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1EAAE82A-3B10-44B2-9CA9-8AD740B87B20}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" altLang="ko-KR"/>
+                      <a:pPr/>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$27:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Lost Items</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Safety</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -839,6 +1260,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -1859,6 +2320,508 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1920,6 +2883,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61631</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>532278</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2183,7 +3176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2191,18 +3184,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75">
+    <row r="2" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +3207,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>2.5</v>
       </c>
@@ -2226,12 +3219,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +3232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -2247,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -2255,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -2271,11 +3264,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
     </row>
